--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/loc_hierarchy_list.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/loc_hierarchy_list.xlsx
@@ -76,7 +76,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -158,7 +158,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -168,6 +168,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -195,7 +199,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -213,18 +217,18 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="n">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="n">
@@ -233,13 +237,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="n">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="n">
@@ -248,13 +252,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="n">
@@ -263,13 +267,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="n">
@@ -278,13 +282,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="n">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="n">
@@ -293,13 +297,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="n">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="n">
@@ -308,13 +312,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="n">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1" t="n">
@@ -323,13 +327,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="n">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="1" t="n">
@@ -338,13 +342,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1" t="n">
@@ -353,13 +357,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="n">
@@ -368,13 +372,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="n">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="1" t="n">
@@ -383,13 +387,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3" t="n">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1" t="n">

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/loc_hierarchy_list.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/loc_hierarchy_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">fra</t>
@@ -199,7 +202,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -231,24 +234,22 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -259,26 +260,24 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -289,26 +288,24 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -319,26 +316,24 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -349,26 +344,24 @@
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -379,26 +372,24 @@
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
